--- a/Requirement List/Requirements_List_송범규.xlsx
+++ b/Requirement List/Requirements_List_송범규.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>No.</t>
   </si>
@@ -22,55 +22,28 @@
     <t>Use Case</t>
   </si>
   <si>
-    <t>회원이 자전거 예약 대기 정보(대여소 이름, 대여소 위치, 자전거 ID, 자전거 제품명, 자전거 유형)를 조회</t>
+    <t>회원이 자전거 예약 대기 정보(대여소 이름, 대여소 위치, 자전거 ID, 자전거 제품명, 자전거 유형)를 조회, 예약 대기 조회 리스트에서 예약 대기 취소</t>
   </si>
   <si>
-    <t>예약 대기 정보 조회</t>
+    <t>예약 대기 정보 조회(+ 예약 대기 취소)</t>
   </si>
   <si>
-    <t>각 예약 대기에 대해 예약 대기 취소</t>
+    <t>회원이 과거 대여 기록을 조회 (날짜별로 정렬), 원하는 경우 대여소별로 과거 대여 기록 정렬 기준 변경, 과거 대여 기록 리스트에서 특정 항목을 선택하여 삭제</t>
   </si>
   <si>
-    <t>예약 대기 취소</t>
+    <t>과거 이용 내역 조회(+ 과거 이용 내역 대여소별 정렬 기준 변경, 원하는 이용 내역 삭제)</t>
   </si>
   <si>
-    <t>회원이 과거 대여 기록을 조회 (날짜별로 정렬)</t>
+    <t>관리자가 자전거 대여 정보를 반납 시간 기준 최근순으로 조회, 원하는 경우 최근 지역별로 정렬 기준 변경</t>
   </si>
   <si>
-    <t>과거 이용 내역 조회</t>
+    <t>자전거 대여 정보 조회(+ 과거 이용 내역 지역별 정렬 기준 변경)</t>
   </si>
   <si>
-    <t>과거 대여 기록에 대해 대여소별, 날짜별로 정렬 기준 변경</t>
+    <t>관리자가 대여 금액 및 대여 횟수 조회, 원하는 경우 1주일, 1개월, 1년으로 조회기간 단위 변경</t>
   </si>
   <si>
-    <t>정렬 기준 변경</t>
-  </si>
-  <si>
-    <t>과거 대여 기록에 대해 특정 항목을 선택하여 삭제</t>
-  </si>
-  <si>
-    <t>원하는 이용 내역 삭제</t>
-  </si>
-  <si>
-    <t>관리자가 자전거 대여 정보를 반납 시간 기준 최근순으로 조회</t>
-  </si>
-  <si>
-    <t>자전거 대여 정보 조회</t>
-  </si>
-  <si>
-    <t>자전거 대여 정보에 대해 지역별, 최근 반납 시간 별로 정렬 기준 변경</t>
-  </si>
-  <si>
-    <t>관리자가 대여 금액 및 대여 횟수 조회</t>
-  </si>
-  <si>
-    <t>대여 금액 및 대여 횟수 조회</t>
-  </si>
-  <si>
-    <t>대여 금액 및 대여 횟수 조회에서 1주일, 1개월, 1년으로 조회기간 단위 변경</t>
-  </si>
-  <si>
-    <t>조회 기간 단위 변경</t>
+    <t>대여 금액 및 대여 횟수 조회(+ 조회 기간 단위 변경)</t>
   </si>
 </sst>
 </file>
@@ -143,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -159,16 +132,22 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -388,122 +367,88 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="7.63"/>
-    <col customWidth="1" min="2" max="2" width="37.13"/>
-    <col customWidth="1" min="3" max="3" width="15.0"/>
-    <col customWidth="1" min="4" max="26" width="7.63"/>
+    <col customWidth="1" min="2" max="2" width="5.75"/>
+    <col customWidth="1" min="3" max="3" width="38.5"/>
+    <col customWidth="1" min="4" max="4" width="26.13"/>
+    <col customWidth="1" min="5" max="26" width="7.63"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="17.25" customHeight="1"/>
+    <row r="2" ht="34.5" customHeight="1">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="34.5" customHeight="1">
-      <c r="A2" s="2">
+    <row r="3" ht="39.0" customHeight="1">
+      <c r="B3" s="2">
         <v>1.0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="24.0" customHeight="1">
-      <c r="A3" s="2">
+    <row r="4" ht="41.25" customHeight="1">
+      <c r="B4" s="2">
         <v>2.0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="24.0" customHeight="1">
-      <c r="A4" s="2">
+    <row r="5" ht="32.25" customHeight="1">
+      <c r="B5" s="2">
         <v>3.0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="32.25" customHeight="1">
-      <c r="A5" s="2">
+    <row r="6" ht="33.75" customHeight="1">
+      <c r="B6" s="2">
         <v>4.0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="7" ht="31.5" customHeight="1">
-      <c r="A7" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" ht="33.0" customHeight="1">
-      <c r="A8" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" ht="17.25" customHeight="1">
-      <c r="A9" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" ht="33.0" customHeight="1">
-      <c r="A10" s="7">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B10" s="6"/>
     </row>
-    <row r="11" ht="17.25" customHeight="1"/>
+    <row r="11" ht="17.25" customHeight="1">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+    </row>
     <row r="12" ht="17.25" customHeight="1"/>
     <row r="13" ht="17.25" customHeight="1"/>
     <row r="14" ht="17.25" customHeight="1"/>

--- a/Requirement List/Requirements_List_송범규.xlsx
+++ b/Requirement List/Requirements_List_송범규.xlsx
@@ -22,13 +22,13 @@
     <t>Use Case</t>
   </si>
   <si>
-    <t>회원이 자전거 예약 대기 정보(대여소 이름, 대여소 위치, 자전거 ID, 자전거 제품명, 자전거 유형)를 조회, 예약 대기 조회 리스트에서 예약 대기 취소</t>
+    <t>회원이 자전거 예약 대기 정보(대여소 이름, 대여소 위치, 자전거 ID, 자전거 제품명, 자전거 유형)를 조회, 예약 대기 조회 리스트에서 예약 대기 취소 가능</t>
   </si>
   <si>
     <t>예약 대기 정보 조회(+ 예약 대기 취소)</t>
   </si>
   <si>
-    <t>회원이 과거 대여 기록을 조회 (날짜별로 정렬), 원하는 경우 대여소별로 과거 대여 기록 정렬 기준 변경, 과거 대여 기록 리스트에서 특정 항목을 선택하여 삭제</t>
+    <t>회원이 과거 대여 기록을 조회 (날짜별로 정렬), 원하는 경우 대여소별로 과거 대여 기록 정렬 기준 변경, 과거 대여 기록 리스트에서 특정 항목을 선택하여 삭제 가능</t>
   </si>
   <si>
     <t>과거 이용 내역 조회(+ 과거 이용 내역 대여소별 정렬 기준 변경, 원하는 이용 내역 삭제)</t>
